--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rima/jet_lag/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45242D6-0352-1A41-BA32-AB80F26CF00D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0C56D6-3F72-1D4E-BBE3-3B204EE92607}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{20DF108E-E7EF-8646-B658-19BD431100BA}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{20DF108E-E7EF-8646-B658-19BD431100BA}"/>
   </bookViews>
   <sheets>
     <sheet name="pcity" sheetId="1" r:id="rId1"/>
+    <sheet name="citylist1" sheetId="2" r:id="rId2"/>
+    <sheet name="citylist2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Monterey CA, USA</t>
   </si>
@@ -139,13 +141,115 @@
   </si>
   <si>
     <t>22.3,114.2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>Hangzhou</t>
+  </si>
+  <si>
+    <t>https://tradingeconomics.com/country-list/consumer-price-index-cpi</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_cities_by_GDP</t>
+  </si>
+  <si>
+    <t>https://www.atkearney.com/documents/20152/1136372/2018+Global+Cities+Report.pdf/21839da3-223b-8cec-a8d2-408285d4bb7c</t>
+  </si>
+  <si>
+    <t>CityRank_index</t>
+  </si>
+  <si>
+    <t>CityRank_outlook</t>
+  </si>
+  <si>
+    <t>52.0809856N</t>
+  </si>
+  <si>
+    <t>5.127684E</t>
+  </si>
+  <si>
+    <t>1.2904753N</t>
+  </si>
+  <si>
+    <t>103.8520359E</t>
+  </si>
+  <si>
+    <t>39.906217N</t>
+  </si>
+  <si>
+    <t>116.3912757E</t>
+  </si>
+  <si>
+    <t>52.2319237N</t>
+  </si>
+  <si>
+    <t>21.0067265E</t>
+  </si>
+  <si>
+    <t>55.6867243N</t>
+  </si>
+  <si>
+    <t>12.5700724E</t>
+  </si>
+  <si>
+    <t>52.08,5.13</t>
+  </si>
+  <si>
+    <t>1.29,103.85</t>
+  </si>
+  <si>
+    <t>39.91,116.39</t>
+  </si>
+  <si>
+    <t>52.23,21.01</t>
+  </si>
+  <si>
+    <t>55.69,12.57</t>
+  </si>
+  <si>
+    <t>42.3602534N</t>
+  </si>
+  <si>
+    <t>71.0582912W</t>
+  </si>
+  <si>
+    <t>42.36,-71.06</t>
+  </si>
+  <si>
+    <t>Kabul</t>
+  </si>
+  <si>
+    <t>Almaty</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -156,6 +260,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,25 +314,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -249,11 +353,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -566,249 +686,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDC39D6-456A-D44A-B5CC-04B307CB11C5}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16" style="5" customWidth="1"/>
-    <col min="4" max="5" width="13.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="21.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+      <c r="D8" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C10" s="6">
         <v>1</v>
       </c>
-      <c r="F9" s="20"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="F10" s="20"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="20"/>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
+      <c r="D16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="F15" s="20"/>
-    </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="D17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C18" s="7">
         <v>1</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="D18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A8:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37F8B2-8282-E347-B4F7-C235E4A3B4D6}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>39.9</v>
+      </c>
+      <c r="C2">
+        <v>116.4</v>
+      </c>
+      <c r="D2">
+        <v>101.5</v>
+      </c>
+      <c r="E2">
+        <v>441.4</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>31.2</v>
+      </c>
+      <c r="C3">
+        <v>121.5</v>
+      </c>
+      <c r="D3">
+        <v>101.5</v>
+      </c>
+      <c r="E3">
+        <v>469</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>30.2</v>
+      </c>
+      <c r="C4">
+        <v>120.2</v>
+      </c>
+      <c r="D4">
+        <v>101.5</v>
+      </c>
+      <c r="E4">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="F4">
+        <v>117</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>37.6</v>
+      </c>
+      <c r="C5">
+        <v>127</v>
+      </c>
+      <c r="D5">
+        <v>104.5</v>
+      </c>
+      <c r="E5">
+        <v>635.4</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C6">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="D6">
+        <v>101.5</v>
+      </c>
+      <c r="E6">
+        <v>1893</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="19"/>
+      <c r="E8" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{E0F47510-CCCA-8A47-AE67-1B52A744FEB2}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{A141D38A-4AE7-624D-9AD3-50AE6F1C17E9}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{98F36D12-8402-7744-B35D-80F864742D15}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D5C3D8-2AD9-9948-B087-A9F58C7DC912}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2">
+        <v>34.53</v>
+      </c>
+      <c r="C2">
+        <v>69.180000000000007</v>
+      </c>
+      <c r="D2">
+        <v>113</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>136</v>
+      </c>
+      <c r="G2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>43.24</v>
+      </c>
+      <c r="C3">
+        <v>76.95</v>
+      </c>
+      <c r="D3">
+        <v>755</v>
+      </c>
+      <c r="E3">
+        <v>53.1</v>
+      </c>
+      <c r="F3">
+        <v>136</v>
+      </c>
+      <c r="G3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C4">
+        <v>44.38</v>
+      </c>
+      <c r="D4">
+        <v>104</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+      <c r="G4">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>